--- a/notebooks/SCAF4/input/SCAF4_individuals.xlsx
+++ b/notebooks/SCAF4/input/SCAF4_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SCAF4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD866043-1120-5D4A-8C44-D78C487D16BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127C190D-F4A4-EA45-99C1-C4EE8A3FF394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="10520" windowWidth="27640" windowHeight="16940" xr2:uid="{DDE46447-D6A6-3642-9230-F4A5F7E6E8BC}"/>
+    <workbookView xWindow="7380" yWindow="2900" windowWidth="27640" windowHeight="16940" xr2:uid="{DDE46447-D6A6-3642-9230-F4A5F7E6E8BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="147">
   <si>
     <t>PMID</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>HP:0002435</t>
+  </si>
+  <si>
+    <t>Congenital onset</t>
   </si>
 </sst>
 </file>
@@ -868,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638CABB-D82B-D74D-BEC2-A6C359F7064C}">
   <dimension ref="A1:AX13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1208,6 +1211,9 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
       <c r="L3" t="s">
         <v>33</v>
       </c>
@@ -1351,6 +1357,9 @@
       <c r="J4" t="s">
         <v>49</v>
       </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
       <c r="L4" t="s">
         <v>34</v>
       </c>
@@ -1494,6 +1503,9 @@
       <c r="J5" t="s">
         <v>44</v>
       </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
       <c r="L5" t="s">
         <v>35</v>
       </c>
@@ -1637,6 +1649,9 @@
       <c r="J6" t="s">
         <v>135</v>
       </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
       <c r="L6" t="s">
         <v>36</v>
       </c>
@@ -1777,6 +1792,9 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
       <c r="L7" t="s">
         <v>37</v>
       </c>
@@ -1917,6 +1935,9 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
       <c r="L8" t="s">
         <v>38</v>
       </c>
@@ -2061,6 +2082,9 @@
       <c r="J9" t="s">
         <v>47</v>
       </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
       <c r="L9" t="s">
         <v>39</v>
       </c>
@@ -2199,6 +2223,9 @@
       <c r="I10" t="s">
         <v>18</v>
       </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" t="s">
         <v>40</v>
       </c>
@@ -2336,6 +2363,9 @@
       </c>
       <c r="I11" t="s">
         <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
       </c>
       <c r="L11" t="s">
         <v>41</v>
